--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Detroit_Pistons__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Detroit_Pistons__.xlsx
@@ -588,79 +588,79 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G2" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H2" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="I2" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="J2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L2" t="n">
-        <v>0.292</v>
+        <v>0.297</v>
       </c>
       <c r="M2" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N2" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O2" t="n">
-        <v>0.401</v>
+        <v>0.403</v>
       </c>
       <c r="P2" t="n">
-        <v>0.419</v>
+        <v>0.423</v>
       </c>
       <c r="Q2" t="n">
         <v>34</v>
       </c>
       <c r="R2" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S2" t="n">
-        <v>0.756</v>
+        <v>0.723</v>
       </c>
       <c r="T2" t="n">
         <v>45</v>
       </c>
       <c r="U2" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="V2" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="W2" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
         <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="n">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>27</v>
       </c>
       <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>769</v>
+      </c>
+      <c r="G3" t="n">
+        <v>153</v>
+      </c>
+      <c r="H3" t="n">
+        <v>368</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41</v>
+      </c>
+      <c r="K3" t="n">
+        <v>121</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="M3" t="n">
+        <v>112</v>
+      </c>
+      <c r="N3" t="n">
+        <v>247</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>124</v>
+      </c>
+      <c r="R3" t="n">
+        <v>146</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="T3" t="n">
         <v>22</v>
       </c>
-      <c r="E3" t="n">
-        <v>22</v>
-      </c>
-      <c r="F3" t="n">
-        <v>730</v>
-      </c>
-      <c r="G3" t="n">
-        <v>147</v>
-      </c>
-      <c r="H3" t="n">
-        <v>352</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="J3" t="n">
-        <v>39</v>
-      </c>
-      <c r="K3" t="n">
-        <v>119</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.328</v>
-      </c>
-      <c r="M3" t="n">
-        <v>108</v>
-      </c>
-      <c r="N3" t="n">
-        <v>233</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>110</v>
-      </c>
-      <c r="R3" t="n">
-        <v>131</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T3" t="n">
-        <v>21</v>
-      </c>
       <c r="U3" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="V3" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="W3" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AB3" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4">
@@ -764,79 +764,79 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="G4" t="n">
+        <v>108</v>
+      </c>
+      <c r="H4" t="n">
+        <v>284</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42</v>
+      </c>
+      <c r="K4" t="n">
+        <v>137</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="M4" t="n">
+        <v>66</v>
+      </c>
+      <c r="N4" t="n">
+        <v>147</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>31</v>
+      </c>
+      <c r="R4" t="n">
+        <v>36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="T4" t="n">
+        <v>22</v>
+      </c>
+      <c r="U4" t="n">
         <v>100</v>
       </c>
-      <c r="H4" t="n">
-        <v>264</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="J4" t="n">
-        <v>41</v>
-      </c>
-      <c r="K4" t="n">
-        <v>133</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="M4" t="n">
-        <v>59</v>
-      </c>
-      <c r="N4" t="n">
-        <v>131</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>27</v>
-      </c>
-      <c r="R4" t="n">
-        <v>32</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.844</v>
-      </c>
-      <c r="T4" t="n">
-        <v>20</v>
-      </c>
-      <c r="U4" t="n">
-        <v>98</v>
-      </c>
       <c r="V4" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="W4" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB4" t="n">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5">
@@ -852,22 +852,22 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="G5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I5" t="n">
-        <v>0.547</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -879,52 +879,52 @@
         <v>0.091</v>
       </c>
       <c r="M5" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N5" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O5" t="n">
-        <v>0.59</v>
+        <v>0.602</v>
       </c>
       <c r="P5" t="n">
-        <v>0.551</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S5" t="n">
-        <v>0.696</v>
+        <v>0.68</v>
       </c>
       <c r="T5" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U5" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="V5" t="n">
+        <v>178</v>
+      </c>
+      <c r="W5" t="n">
+        <v>26</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB5" t="n">
         <v>168</v>
-      </c>
-      <c r="W5" t="n">
-        <v>23</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>52</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -940,67 +940,67 @@
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="G6" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H6" t="n">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="I6" t="n">
-        <v>0.391</v>
+        <v>0.403</v>
       </c>
       <c r="J6" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K6" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L6" t="n">
-        <v>0.298</v>
+        <v>0.32</v>
       </c>
       <c r="M6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O6" t="n">
-        <v>0.549</v>
+        <v>0.548</v>
       </c>
       <c r="P6" t="n">
-        <v>0.484</v>
+        <v>0.505</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S6" t="n">
-        <v>0.833</v>
+        <v>0.842</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>5</v>
@@ -1009,10 +1009,10 @@
         <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
@@ -1028,13 +1028,13 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="G7" t="n">
         <v>49</v>
@@ -1067,40 +1067,40 @@
         <v>0.478</v>
       </c>
       <c r="Q7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R7" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S7" t="n">
-        <v>0.829</v>
+        <v>0.837</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
       </c>
       <c r="U7" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V7" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W7" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -1116,22 +1116,22 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I8" t="n">
-        <v>0.336</v>
+        <v>0.333</v>
       </c>
       <c r="J8" t="n">
         <v>19</v>
@@ -1143,37 +1143,37 @@
         <v>0.352</v>
       </c>
       <c r="M8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O8" t="n">
-        <v>0.323</v>
+        <v>0.319</v>
       </c>
       <c r="P8" t="n">
-        <v>0.416</v>
+        <v>0.411</v>
       </c>
       <c r="Q8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.947</v>
       </c>
       <c r="T8" t="n">
         <v>12</v>
       </c>
       <c r="U8" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V8" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W8" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X8" t="n">
         <v>23</v>
@@ -1185,10 +1185,10 @@
         <v>31</v>
       </c>
       <c r="AA8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB8" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -1204,43 +1204,43 @@
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="G9" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H9" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I9" t="n">
-        <v>0.414</v>
+        <v>0.418</v>
       </c>
       <c r="J9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L9" t="n">
-        <v>0.288</v>
+        <v>0.29</v>
       </c>
       <c r="M9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N9" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O9" t="n">
-        <v>0.522</v>
+        <v>0.528</v>
       </c>
       <c r="P9" t="n">
-        <v>0.48</v>
+        <v>0.485</v>
       </c>
       <c r="Q9" t="n">
         <v>23</v>
@@ -1261,22 +1261,22 @@
         <v>69</v>
       </c>
       <c r="W9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X9" t="n">
         <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
@@ -1292,64 +1292,64 @@
         <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="G10" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I10" t="n">
-        <v>0.411</v>
+        <v>0.404</v>
       </c>
       <c r="J10" t="n">
         <v>19</v>
       </c>
       <c r="K10" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" t="n">
-        <v>0.292</v>
+        <v>0.288</v>
       </c>
       <c r="M10" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O10" t="n">
-        <v>0.513</v>
+        <v>0.5</v>
       </c>
       <c r="P10" t="n">
-        <v>0.479</v>
+        <v>0.469</v>
       </c>
       <c r="Q10" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R10" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S10" t="n">
-        <v>0.78</v>
+        <v>0.788</v>
       </c>
       <c r="T10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U10" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="V10" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X10" t="n">
         <v>7</v>
@@ -1361,10 +1361,10 @@
         <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
@@ -1380,79 +1380,79 @@
         <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G11" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H11" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I11" t="n">
-        <v>0.519</v>
+        <v>0.524</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L11" t="n">
-        <v>0.267</v>
+        <v>0.333</v>
       </c>
       <c r="M11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N11" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O11" t="n">
-        <v>0.581</v>
+        <v>0.576</v>
       </c>
       <c r="P11" t="n">
-        <v>0.545</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R11" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S11" t="n">
-        <v>0.778</v>
+        <v>0.727</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
       </c>
       <c r="U11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V11" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W11" t="n">
+        <v>12</v>
+      </c>
+      <c r="X11" t="n">
         <v>11</v>
       </c>
-      <c r="X11" t="n">
-        <v>10</v>
-      </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
         <v>11</v>
       </c>
       <c r="AA11" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -1896,77 +1896,77 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>5520</v>
+        <v>5785</v>
       </c>
       <c r="G17" t="n">
-        <v>819</v>
+        <v>856</v>
       </c>
       <c r="H17" t="n">
-        <v>2011</v>
+        <v>2090</v>
       </c>
       <c r="I17" t="n">
-        <v>0.407</v>
+        <v>0.41</v>
       </c>
       <c r="J17" t="n">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="K17" t="n">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="L17" t="n">
-        <v>0.304</v>
+        <v>0.31</v>
       </c>
       <c r="M17" t="n">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="N17" t="n">
-        <v>1168</v>
+        <v>1223</v>
       </c>
       <c r="O17" t="n">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
       <c r="P17" t="n">
-        <v>0.471</v>
+        <v>0.474</v>
       </c>
       <c r="Q17" t="n">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="R17" t="n">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="S17" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="T17" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="U17" t="n">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="V17" t="n">
-        <v>984</v>
+        <v>1021</v>
       </c>
       <c r="W17" t="n">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="X17" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z17" t="n">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="AA17" t="n">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="AB17" t="n">
-        <v>2278</v>
+        <v>2394</v>
       </c>
     </row>
   </sheetData>
